--- a/results/LR/75Hz_2classes/res_hyperopt.xlsx
+++ b/results/LR/75Hz_2classes/res_hyperopt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>load</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'C': 2.68606708532064, 'tol': 5.7125921570248795e-06}</t>
+          <t>{'C': 2.7153682933879044, 'tol': 2.789868997163111e-06}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'C': 2.145216273856188, 'tol': 0.09218700830422073}</t>
+          <t>{'C': 2.67365911790506, 'tol': 0.011614383749270728}</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="D4" t="n">
         <v>0.66</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'C': 2.7162812598768147, 'tol': 0.00019655656354582613}</t>
+          <t>{'C': 2.7040736431377415, 'tol': 3.2973524992941695e-05}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'C': 0.1551606045360102, 'tol': 0.00041202909835471094}</t>
+          <t>{'C': 0.15278953987919727, 'tol': 0.018518079730381467}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'C': 1.8099676426806672, 'tol': 0.023634931806875616}</t>
+          <t>{'C': 1.8265097214552006, 'tol': 0.0003885570870275211}</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'C': 2.7087037069868685, 'tol': 0.0010491747536895215}</t>
+          <t>{'C': 2.234239563034508, 'tol': 0.001449606820001928}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'C': 2.233828364680089, 'tol': 0.00040836366597324}</t>
+          <t>{'C': 2.034565978489341, 'tol': 0.10970026336984343}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'C': 2.664784013780484, 'tol': 0.00018516094047691685}</t>
+          <t>{'C': 1.1764770331591865, 'tol': 5.972016735044026e-06}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'C': 2.698882719462341, 'tol': 0.3597889627009711}</t>
+          <t>{'C': 2.055775905557577, 'tol': 0.0048095539158975196}</t>
         </is>
       </c>
     </row>
@@ -657,11 +657,11 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'C': 2.3550287507966123, 'tol': 5.16593891831289e-05}</t>
+          <t>{'C': 1.64324458709308, 'tol': 1.5894723399457812e-05}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'C': 0.0031567360834760037, 'tol': 0.04117315648472219}</t>
+          <t>{'C': 0.0030472092816876306, 'tol': 0.011698159072051724}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'C': 2.570401430725233, 'tol': 0.0002516307076031469}</t>
+          <t>{'C': 1.7128919536222986, 'tol': 0.0005426022822417208}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'C': 2.673499971797318, 'tol': 9.67323663216812e-06}</t>
+          <t>{'C': 2.7057528991071496, 'tol': 0.35279621687167956}</t>
         </is>
       </c>
     </row>
@@ -738,14 +738,14 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="D15" t="n">
         <v>0.63</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'C': 2.687066430738801, 'tol': 6.774575402452463e-06}</t>
+          <t>{'C': 2.6796199551022277, 'tol': 2.3338145888569563e-06}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'C': 2.718264441388985, 'tol': 0.04616435311282721}</t>
+          <t>{'C': 2.2242544452907858, 'tol': 0.00015158150505710776}</t>
         </is>
       </c>
     </row>
